--- a/target/classes/Staff_List.xlsx
+++ b/target/classes/Staff_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2024S1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seahs\repos\SC2002_OOP_Project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA90EAB1-7387-443D-9C48-A8C1C187A849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F2D420-6D0F-4058-A56B-0A7C7081937D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Staff ID</t>
   </si>
@@ -49,15 +49,6 @@
     <t>A001</t>
   </si>
   <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>Pharmacist</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -74,6 +65,36 @@
   </si>
   <si>
     <t>Sarah Lee</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>doctor1</t>
+  </si>
+  <si>
+    <t>doctor2</t>
+  </si>
+  <si>
+    <t>pharmacist1</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>pharmacist</t>
+  </si>
+  <si>
+    <t>administrator</t>
   </si>
 </sst>
 </file>
@@ -441,100 +462,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
         <v>40</v>
       </c>
     </row>
